--- a/Testdata/Playwright_LMS_Team01_Testdata.xlsx
+++ b/Testdata/Playwright_LMS_Team01_Testdata.xlsx
@@ -110,7 +110,7 @@
     <t>DVLPR02</t>
   </si>
   <si>
-    <t>java 0837</t>
+    <t>JIRA0987</t>
   </si>
   <si>
     <t>API Testing</t>
